--- a/files/menus/the_roost/breakfast_theroost.xlsx
+++ b/files/menus/the_roost/breakfast_theroost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\the_roost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C6DFEC-DC2A-4793-8B49-8B82D9B9D24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3213A910-E7B8-4B4A-A3B0-5CDCE030B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="7005" windowWidth="24825" windowHeight="14220" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="7980" yWindow="585" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="breakfast_theroost" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,12 +53,6 @@
     <t>nutritionLabel</t>
   </si>
   <si>
-    <t>waffles</t>
-  </si>
-  <si>
-    <t>Egg, Sausage</t>
-  </si>
-  <si>
     <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Tomato, Green Onion</t>
   </si>
   <si>
-    <t>Egg</t>
-  </si>
-  <si>
     <t>Brekfast Waffles</t>
   </si>
   <si>
@@ -144,6 +135,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>placeholder</t>
   </si>
 </sst>
 </file>
@@ -523,7 +517,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -556,167 +550,167 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/the_roost/breakfast_theroost.xlsx
+++ b/files/menus/the_roost/breakfast_theroost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\the_roost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3213A910-E7B8-4B4A-A3B0-5CDCE030B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68184B9-76C9-4C54-BD2D-13947772A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="585" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="1050" yWindow="1755" windowWidth="23700" windowHeight="13215" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="breakfast_theroost" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,15 +53,6 @@
     <t>nutritionLabel</t>
   </si>
   <si>
-    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
-  </si>
-  <si>
-    <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
-  </si>
-  <si>
     <t>Allergens</t>
   </si>
   <si>
@@ -86,15 +77,9 @@
     <t>Breakfast Special</t>
   </si>
   <si>
-    <t>Dairy, wheat, sulphites, egg.</t>
-  </si>
-  <si>
     <t>Lumberjack Bowl</t>
   </si>
   <si>
-    <t>Tater Tots / Sausage + Bacon or Vegan Sausage / Cheddar Cheese / Diced Tomato / Green Onion / Hollandaise</t>
-  </si>
-  <si>
     <t>Vegetarian Breakfast Special</t>
   </si>
   <si>
@@ -110,18 +95,9 @@
     <t>Tater Tots / Vegan Sausage / Cheddar Cheese / Diced Tomato / Green Onion / Hollandaise</t>
   </si>
   <si>
-    <t>Tomato, Green Onion</t>
-  </si>
-  <si>
-    <t>Brekfast Waffles</t>
-  </si>
-  <si>
     <t>Waffles / Berry Compote / Whipped Cream</t>
   </si>
   <si>
-    <t>Dairy, wheat, egg.</t>
-  </si>
-  <si>
     <t>VEG</t>
   </si>
   <si>
@@ -131,13 +107,49 @@
     <t>BC</t>
   </si>
   <si>
-    <t>Wheat, sulphites, egg.</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>placeholder</t>
+    <t>Eggs / Bacon / Tater Tots /  Salsa / Nacho Cheese</t>
+  </si>
+  <si>
+    <t>Breakfast Waffles</t>
+  </si>
+  <si>
+    <t>Eggs / Spinach / Tater Tots /  Salsa / Nacho Cheese</t>
+  </si>
+  <si>
+    <t>Eggs / Pork Sausage / Tater Tots /  Salsa / Nacho Cheese</t>
+  </si>
+  <si>
+    <t>Castle Cheese Nacho Blend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Castle Cheese Nacho Blend</t>
+  </si>
+  <si>
+    <t>Patisserie LeBeau Waffle</t>
+  </si>
+  <si>
+    <t>Wheat, milk, egg.</t>
+  </si>
+  <si>
+    <t>Fresh Start Tomato, Castle Cheese Nacho Blend</t>
+  </si>
+  <si>
+    <t>Wheat, gluten, milk, sulphites, egg.</t>
+  </si>
+  <si>
+    <t>Tater Tots / Sausage  and  Bacon / Cheddar Cheese / Diced Tomato / Green Onion / Hollandaise</t>
+  </si>
+  <si>
+    <t>Bacon_Breakfast_Burrito</t>
+  </si>
+  <si>
+    <t>Falafel_Wrap</t>
+  </si>
+  <si>
+    <t>Apple_Turnover</t>
   </si>
 </sst>
 </file>
@@ -179,11 +191,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +526,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -550,147 +559,147 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,19 +707,19 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
